--- a/Model/BayesLSTM/Multivariate/result/Service/CHN.xlsx
+++ b/Model/BayesLSTM/Multivariate/result/Service/CHN.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,13 +463,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>42.02682876586914</v>
+        <v>45.53852462768555</v>
       </c>
       <c r="C2" t="n">
-        <v>38.62141036987305</v>
+        <v>41.67149353027344</v>
       </c>
       <c r="D2" t="n">
-        <v>45.43224716186523</v>
+        <v>49.40555572509766</v>
       </c>
     </row>
     <row r="3">
@@ -477,13 +477,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>40.8402214050293</v>
+        <v>47.18401336669922</v>
       </c>
       <c r="C3" t="n">
-        <v>37.70746612548828</v>
+        <v>42.27437591552734</v>
       </c>
       <c r="D3" t="n">
-        <v>43.97297668457031</v>
+        <v>52.09365081787109</v>
       </c>
     </row>
     <row r="4">
@@ -491,13 +491,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>41.21689605712891</v>
+        <v>46.28827285766602</v>
       </c>
       <c r="C4" t="n">
-        <v>38.25786590576172</v>
+        <v>38.76160430908203</v>
       </c>
       <c r="D4" t="n">
-        <v>44.17592620849609</v>
+        <v>53.81494140625</v>
       </c>
     </row>
     <row r="5">
@@ -505,13 +505,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>41.86864471435547</v>
+        <v>45.73942184448242</v>
       </c>
       <c r="C5" t="n">
-        <v>38.24748229980469</v>
+        <v>40.78073120117188</v>
       </c>
       <c r="D5" t="n">
-        <v>45.48980712890625</v>
+        <v>50.69811248779297</v>
       </c>
     </row>
     <row r="6">
@@ -519,13 +519,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>42.41894912719727</v>
+        <v>46.34296035766602</v>
       </c>
       <c r="C6" t="n">
-        <v>38.23002624511719</v>
+        <v>41.33815002441406</v>
       </c>
       <c r="D6" t="n">
-        <v>46.60787200927734</v>
+        <v>51.34777069091797</v>
       </c>
     </row>
     <row r="7">
@@ -533,13 +533,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>41.29320526123047</v>
+        <v>46.76982879638672</v>
       </c>
       <c r="C7" t="n">
-        <v>37.20847320556641</v>
+        <v>41.27589797973633</v>
       </c>
       <c r="D7" t="n">
-        <v>45.37793731689453</v>
+        <v>52.26375961303711</v>
       </c>
     </row>
     <row r="8">
@@ -547,13 +547,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>41.46423721313477</v>
+        <v>46.22016143798828</v>
       </c>
       <c r="C8" t="n">
-        <v>38.99477386474609</v>
+        <v>38.57837677001953</v>
       </c>
       <c r="D8" t="n">
-        <v>43.93370056152344</v>
+        <v>53.86194610595703</v>
       </c>
     </row>
     <row r="9">
@@ -561,13 +561,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>41.85796737670898</v>
+        <v>46.41919708251953</v>
       </c>
       <c r="C9" t="n">
-        <v>39.26095962524414</v>
+        <v>39.27982330322266</v>
       </c>
       <c r="D9" t="n">
-        <v>44.45497512817383</v>
+        <v>53.55857086181641</v>
       </c>
     </row>
     <row r="10">
@@ -575,13 +575,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>42.11362838745117</v>
+        <v>46.48020935058594</v>
       </c>
       <c r="C10" t="n">
-        <v>38.64628982543945</v>
+        <v>39.96102142333984</v>
       </c>
       <c r="D10" t="n">
-        <v>45.58096694946289</v>
+        <v>52.99939727783203</v>
       </c>
     </row>
     <row r="11">
@@ -589,13 +589,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>41.44283294677734</v>
+        <v>46.22570037841797</v>
       </c>
       <c r="C11" t="n">
-        <v>38.47958374023438</v>
+        <v>41.51619720458984</v>
       </c>
       <c r="D11" t="n">
-        <v>44.40608215332031</v>
+        <v>50.93520355224609</v>
       </c>
     </row>
     <row r="12">
@@ -603,13 +603,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>41.61175918579102</v>
+        <v>44.98169708251953</v>
       </c>
       <c r="C12" t="n">
-        <v>37.35035705566406</v>
+        <v>39.63209915161133</v>
       </c>
       <c r="D12" t="n">
-        <v>45.87316131591797</v>
+        <v>50.33129501342773</v>
       </c>
     </row>
     <row r="13">
@@ -617,13 +617,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>41.53459548950195</v>
+        <v>48.07594680786133</v>
       </c>
       <c r="C13" t="n">
-        <v>38.12175750732422</v>
+        <v>44.31679916381836</v>
       </c>
       <c r="D13" t="n">
-        <v>44.94743347167969</v>
+        <v>51.8350944519043</v>
       </c>
     </row>
     <row r="14">
@@ -631,13 +631,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>42.09749984741211</v>
+        <v>46.6436882019043</v>
       </c>
       <c r="C14" t="n">
-        <v>38.93395233154297</v>
+        <v>40.11328887939453</v>
       </c>
       <c r="D14" t="n">
-        <v>45.26104736328125</v>
+        <v>53.17408752441406</v>
       </c>
     </row>
     <row r="15">
@@ -645,13 +645,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>41.78656768798828</v>
+        <v>44.32666397094727</v>
       </c>
       <c r="C15" t="n">
-        <v>38.38741302490234</v>
+        <v>39.11817169189453</v>
       </c>
       <c r="D15" t="n">
-        <v>45.18572235107422</v>
+        <v>49.53515625</v>
       </c>
     </row>
     <row r="16">
@@ -659,13 +659,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>42.21240234375</v>
+        <v>44.96186065673828</v>
       </c>
       <c r="C16" t="n">
-        <v>37.57691955566406</v>
+        <v>39.36285781860352</v>
       </c>
       <c r="D16" t="n">
-        <v>46.84788513183594</v>
+        <v>50.56086349487305</v>
       </c>
     </row>
     <row r="17">
@@ -673,13 +673,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>42.33064651489258</v>
+        <v>44.17862701416016</v>
       </c>
       <c r="C17" t="n">
-        <v>38.05809783935547</v>
+        <v>37.07102966308594</v>
       </c>
       <c r="D17" t="n">
-        <v>46.60319519042969</v>
+        <v>51.28622436523438</v>
       </c>
     </row>
     <row r="18">
@@ -687,13 +687,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>41.81247711181641</v>
+        <v>45.52764129638672</v>
       </c>
       <c r="C18" t="n">
-        <v>38.90783309936523</v>
+        <v>40.79721450805664</v>
       </c>
       <c r="D18" t="n">
-        <v>44.71712112426758</v>
+        <v>50.2580680847168</v>
       </c>
     </row>
     <row r="19">
@@ -701,13 +701,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>41.91230010986328</v>
+        <v>45.68059539794922</v>
       </c>
       <c r="C19" t="n">
-        <v>37.48337936401367</v>
+        <v>38.48614883422852</v>
       </c>
       <c r="D19" t="n">
-        <v>46.34122085571289</v>
+        <v>52.87504196166992</v>
       </c>
     </row>
     <row r="20">
@@ -715,13 +715,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>41.57959365844727</v>
+        <v>46.43854904174805</v>
       </c>
       <c r="C20" t="n">
-        <v>38.59170532226562</v>
+        <v>39.29060745239258</v>
       </c>
       <c r="D20" t="n">
-        <v>44.56748199462891</v>
+        <v>53.58649063110352</v>
       </c>
     </row>
     <row r="21">
@@ -729,13 +729,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>41.20866775512695</v>
+        <v>45.27336883544922</v>
       </c>
       <c r="C21" t="n">
-        <v>36.59238815307617</v>
+        <v>39.44609832763672</v>
       </c>
       <c r="D21" t="n">
-        <v>45.82494735717773</v>
+        <v>51.10063934326172</v>
       </c>
     </row>
     <row r="22">
@@ -743,13 +743,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>40.79373931884766</v>
+        <v>46.34101104736328</v>
       </c>
       <c r="C22" t="n">
-        <v>37.66245651245117</v>
+        <v>39.91293334960938</v>
       </c>
       <c r="D22" t="n">
-        <v>43.92502212524414</v>
+        <v>52.76908874511719</v>
       </c>
     </row>
     <row r="23">
@@ -757,13 +757,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>41.27870178222656</v>
+        <v>46.48712921142578</v>
       </c>
       <c r="C23" t="n">
-        <v>38.51076126098633</v>
+        <v>41.53915786743164</v>
       </c>
       <c r="D23" t="n">
-        <v>44.0466423034668</v>
+        <v>51.43510055541992</v>
       </c>
     </row>
     <row r="24">
@@ -771,13 +771,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>41.49336624145508</v>
+        <v>45.63843536376953</v>
       </c>
       <c r="C24" t="n">
-        <v>37.95932769775391</v>
+        <v>40.55740356445312</v>
       </c>
       <c r="D24" t="n">
-        <v>45.02740478515625</v>
+        <v>50.71946716308594</v>
       </c>
     </row>
     <row r="25">
@@ -785,13 +785,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>41.16405487060547</v>
+        <v>45.33899688720703</v>
       </c>
       <c r="C25" t="n">
-        <v>37.45635223388672</v>
+        <v>39.97440719604492</v>
       </c>
       <c r="D25" t="n">
-        <v>44.87175750732422</v>
+        <v>50.70358657836914</v>
       </c>
     </row>
     <row r="26">
@@ -799,13 +799,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>41.60715484619141</v>
+        <v>46.38190078735352</v>
       </c>
       <c r="C26" t="n">
-        <v>38.68790054321289</v>
+        <v>42.74773406982422</v>
       </c>
       <c r="D26" t="n">
-        <v>44.52640914916992</v>
+        <v>50.01606750488281</v>
       </c>
     </row>
     <row r="27">
@@ -813,13 +813,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>42.03728866577148</v>
+        <v>47.49890518188477</v>
       </c>
       <c r="C27" t="n">
-        <v>38.19698333740234</v>
+        <v>41.91414260864258</v>
       </c>
       <c r="D27" t="n">
-        <v>45.87759399414062</v>
+        <v>53.08366775512695</v>
       </c>
     </row>
     <row r="28">
@@ -827,13 +827,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>43.01729965209961</v>
+        <v>44.7691650390625</v>
       </c>
       <c r="C28" t="n">
-        <v>38.0231819152832</v>
+        <v>39.15191268920898</v>
       </c>
       <c r="D28" t="n">
-        <v>48.01141738891602</v>
+        <v>50.38641738891602</v>
       </c>
     </row>
     <row r="29">
@@ -841,13 +841,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>41.34999847412109</v>
+        <v>46.14570617675781</v>
       </c>
       <c r="C29" t="n">
-        <v>38.45541763305664</v>
+        <v>40.77714538574219</v>
       </c>
       <c r="D29" t="n">
-        <v>44.24457931518555</v>
+        <v>51.51426696777344</v>
       </c>
     </row>
     <row r="30">
@@ -855,83 +855,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>42.34810638427734</v>
+        <v>43.97558212280273</v>
       </c>
       <c r="C30" t="n">
-        <v>39.39638900756836</v>
+        <v>38.17071151733398</v>
       </c>
       <c r="D30" t="n">
-        <v>45.29982376098633</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B31" t="n">
-        <v>41.35624694824219</v>
-      </c>
-      <c r="C31" t="n">
-        <v>37.31629943847656</v>
-      </c>
-      <c r="D31" t="n">
-        <v>45.39619445800781</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B32" t="n">
-        <v>42.02746963500977</v>
-      </c>
-      <c r="C32" t="n">
-        <v>38.60662078857422</v>
-      </c>
-      <c r="D32" t="n">
-        <v>45.44831848144531</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B33" t="n">
-        <v>42.11325836181641</v>
-      </c>
-      <c r="C33" t="n">
-        <v>37.23094177246094</v>
-      </c>
-      <c r="D33" t="n">
-        <v>46.99557495117188</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B34" t="n">
-        <v>41.67597579956055</v>
-      </c>
-      <c r="C34" t="n">
-        <v>38.50083923339844</v>
-      </c>
-      <c r="D34" t="n">
-        <v>44.85111236572266</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B35" t="n">
-        <v>42.17965316772461</v>
-      </c>
-      <c r="C35" t="n">
-        <v>37.42880630493164</v>
-      </c>
-      <c r="D35" t="n">
-        <v>46.93050003051758</v>
+        <v>49.78045272827148</v>
       </c>
     </row>
   </sheetData>
@@ -977,72 +907,72 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2022</v>
+        <v>2017</v>
       </c>
       <c r="B2" t="n">
-        <v>43.41301879882813</v>
+        <v>44.68321228027344</v>
       </c>
       <c r="C2" t="n">
-        <v>38.8482239147981</v>
+        <v>36.29871368408203</v>
       </c>
       <c r="D2" t="n">
-        <v>47.97781368285816</v>
+        <v>53.06771087646484</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2023</v>
+        <v>2018</v>
       </c>
       <c r="B3" t="n">
-        <v>39.06677742004395</v>
+        <v>44.98122024536133</v>
       </c>
       <c r="C3" t="n">
-        <v>37.30017118072045</v>
+        <v>37.22719192504883</v>
       </c>
       <c r="D3" t="n">
-        <v>40.83338365936744</v>
+        <v>52.73524856567383</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2024</v>
+        <v>2019</v>
       </c>
       <c r="B4" t="n">
-        <v>39.56489181518555</v>
+        <v>45.46052169799805</v>
       </c>
       <c r="C4" t="n">
-        <v>34.23272170904053</v>
+        <v>38.37905502319336</v>
       </c>
       <c r="D4" t="n">
-        <v>44.89706192133057</v>
+        <v>52.54198837280273</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2025</v>
+        <v>2020</v>
       </c>
       <c r="B5" t="n">
-        <v>40.34183235168457</v>
+        <v>44.62319946289062</v>
       </c>
       <c r="C5" t="n">
-        <v>36.93855933820179</v>
+        <v>38.73444366455078</v>
       </c>
       <c r="D5" t="n">
-        <v>43.74510536516735</v>
+        <v>50.51195526123047</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2026</v>
+        <v>2021</v>
       </c>
       <c r="B6" t="n">
-        <v>42.88307151794434</v>
+        <v>44.48468780517578</v>
       </c>
       <c r="C6" t="n">
-        <v>38.83923681136609</v>
+        <v>38.02085494995117</v>
       </c>
       <c r="D6" t="n">
-        <v>46.92690622452259</v>
+        <v>50.94852066040039</v>
       </c>
     </row>
   </sheetData>
@@ -1091,13 +1021,13 @@
         <v>1988</v>
       </c>
       <c r="B2" t="n">
-        <v>38.02996826171875</v>
+        <v>46.61020660400391</v>
       </c>
       <c r="C2" t="n">
-        <v>34.66946411132812</v>
+        <v>41.02397155761719</v>
       </c>
       <c r="D2" t="n">
-        <v>41.39047241210938</v>
+        <v>52.19644165039062</v>
       </c>
     </row>
     <row r="3">
@@ -1105,13 +1035,13 @@
         <v>1989</v>
       </c>
       <c r="B3" t="n">
-        <v>39.24953460693359</v>
+        <v>46.4257698059082</v>
       </c>
       <c r="C3" t="n">
-        <v>34.6728515625</v>
+        <v>40.75936508178711</v>
       </c>
       <c r="D3" t="n">
-        <v>43.82621765136719</v>
+        <v>52.0921745300293</v>
       </c>
     </row>
     <row r="4">
@@ -1119,13 +1049,13 @@
         <v>1990</v>
       </c>
       <c r="B4" t="n">
-        <v>38.5609130859375</v>
+        <v>45.30954742431641</v>
       </c>
       <c r="C4" t="n">
-        <v>34.2545051574707</v>
+        <v>40.75679397583008</v>
       </c>
       <c r="D4" t="n">
-        <v>42.8673210144043</v>
+        <v>49.86230087280273</v>
       </c>
     </row>
     <row r="5">
@@ -1133,13 +1063,13 @@
         <v>1991</v>
       </c>
       <c r="B5" t="n">
-        <v>37.82241821289062</v>
+        <v>48.04700088500977</v>
       </c>
       <c r="C5" t="n">
-        <v>35.64707565307617</v>
+        <v>42.12214279174805</v>
       </c>
       <c r="D5" t="n">
-        <v>39.99776077270508</v>
+        <v>53.97185897827148</v>
       </c>
     </row>
     <row r="6">
@@ -1147,13 +1077,13 @@
         <v>1992</v>
       </c>
       <c r="B6" t="n">
-        <v>38.33087921142578</v>
+        <v>46.60223007202148</v>
       </c>
       <c r="C6" t="n">
-        <v>34.55925750732422</v>
+        <v>41.53789138793945</v>
       </c>
       <c r="D6" t="n">
-        <v>42.10250091552734</v>
+        <v>51.66656875610352</v>
       </c>
     </row>
     <row r="7">
@@ -1161,13 +1091,13 @@
         <v>1993</v>
       </c>
       <c r="B7" t="n">
-        <v>38.17567825317383</v>
+        <v>45.76652145385742</v>
       </c>
       <c r="C7" t="n">
-        <v>35.30010223388672</v>
+        <v>38.80023574829102</v>
       </c>
       <c r="D7" t="n">
-        <v>41.05125427246094</v>
+        <v>52.73280715942383</v>
       </c>
     </row>
     <row r="8">
@@ -1175,13 +1105,13 @@
         <v>1994</v>
       </c>
       <c r="B8" t="n">
-        <v>38.85639190673828</v>
+        <v>45.84682464599609</v>
       </c>
       <c r="C8" t="n">
-        <v>35.95277404785156</v>
+        <v>40.75434494018555</v>
       </c>
       <c r="D8" t="n">
-        <v>41.760009765625</v>
+        <v>50.93930435180664</v>
       </c>
     </row>
     <row r="9">
@@ -1189,13 +1119,13 @@
         <v>1995</v>
       </c>
       <c r="B9" t="n">
-        <v>39.08077239990234</v>
+        <v>46.5224609375</v>
       </c>
       <c r="C9" t="n">
-        <v>35.01729965209961</v>
+        <v>41.52090072631836</v>
       </c>
       <c r="D9" t="n">
-        <v>43.14424514770508</v>
+        <v>51.52402114868164</v>
       </c>
     </row>
     <row r="10">
@@ -1203,13 +1133,13 @@
         <v>1996</v>
       </c>
       <c r="B10" t="n">
-        <v>38.50346374511719</v>
+        <v>46.34107208251953</v>
       </c>
       <c r="C10" t="n">
-        <v>34.87691116333008</v>
+        <v>40.87142181396484</v>
       </c>
       <c r="D10" t="n">
-        <v>42.1300163269043</v>
+        <v>51.81072235107422</v>
       </c>
     </row>
     <row r="11">
@@ -1217,13 +1147,13 @@
         <v>1997</v>
       </c>
       <c r="B11" t="n">
-        <v>38.22861099243164</v>
+        <v>47.40956878662109</v>
       </c>
       <c r="C11" t="n">
-        <v>35.47627258300781</v>
+        <v>41.91474151611328</v>
       </c>
       <c r="D11" t="n">
-        <v>40.98094940185547</v>
+        <v>52.90439605712891</v>
       </c>
     </row>
     <row r="12">
@@ -1231,13 +1161,13 @@
         <v>1998</v>
       </c>
       <c r="B12" t="n">
-        <v>39.15530776977539</v>
+        <v>47.23528671264648</v>
       </c>
       <c r="C12" t="n">
-        <v>36.43490219116211</v>
+        <v>41.23897171020508</v>
       </c>
       <c r="D12" t="n">
-        <v>41.87571334838867</v>
+        <v>53.23160171508789</v>
       </c>
     </row>
     <row r="13">
@@ -1245,13 +1175,13 @@
         <v>1999</v>
       </c>
       <c r="B13" t="n">
-        <v>38.33379364013672</v>
+        <v>47.01469802856445</v>
       </c>
       <c r="C13" t="n">
-        <v>35.53347015380859</v>
+        <v>40.30612182617188</v>
       </c>
       <c r="D13" t="n">
-        <v>41.13411712646484</v>
+        <v>53.72327423095703</v>
       </c>
     </row>
     <row r="14">
@@ -1259,13 +1189,13 @@
         <v>2000</v>
       </c>
       <c r="B14" t="n">
-        <v>37.19829559326172</v>
+        <v>46.32275772094727</v>
       </c>
       <c r="C14" t="n">
-        <v>33.44864273071289</v>
+        <v>40.92073059082031</v>
       </c>
       <c r="D14" t="n">
-        <v>40.94794845581055</v>
+        <v>51.72478485107422</v>
       </c>
     </row>
     <row r="15">
@@ -1273,13 +1203,13 @@
         <v>2001</v>
       </c>
       <c r="B15" t="n">
-        <v>38.45804595947266</v>
+        <v>47.02653121948242</v>
       </c>
       <c r="C15" t="n">
-        <v>34.8938102722168</v>
+        <v>43.28150177001953</v>
       </c>
       <c r="D15" t="n">
-        <v>42.02228164672852</v>
+        <v>50.77156066894531</v>
       </c>
     </row>
     <row r="16">
@@ -1287,13 +1217,13 @@
         <v>2002</v>
       </c>
       <c r="B16" t="n">
-        <v>37.94960784912109</v>
+        <v>47.2587776184082</v>
       </c>
       <c r="C16" t="n">
-        <v>33.77419662475586</v>
+        <v>41.6266975402832</v>
       </c>
       <c r="D16" t="n">
-        <v>42.12501907348633</v>
+        <v>52.8908576965332</v>
       </c>
     </row>
     <row r="17">
@@ -1301,13 +1231,13 @@
         <v>2003</v>
       </c>
       <c r="B17" t="n">
-        <v>37.59528350830078</v>
+        <v>48.51347732543945</v>
       </c>
       <c r="C17" t="n">
-        <v>34.12915420532227</v>
+        <v>42.26271057128906</v>
       </c>
       <c r="D17" t="n">
-        <v>41.0614128112793</v>
+        <v>54.76424407958984</v>
       </c>
     </row>
     <row r="18">
@@ -1315,13 +1245,13 @@
         <v>2004</v>
       </c>
       <c r="B18" t="n">
-        <v>39.7122688293457</v>
+        <v>47.39297485351562</v>
       </c>
       <c r="C18" t="n">
-        <v>36.37048721313477</v>
+        <v>43.58159637451172</v>
       </c>
       <c r="D18" t="n">
-        <v>43.05405044555664</v>
+        <v>51.20435333251953</v>
       </c>
     </row>
     <row r="19">
@@ -1329,13 +1259,13 @@
         <v>2005</v>
       </c>
       <c r="B19" t="n">
-        <v>39.05857467651367</v>
+        <v>47.43005752563477</v>
       </c>
       <c r="C19" t="n">
-        <v>36.56411361694336</v>
+        <v>42.01662063598633</v>
       </c>
       <c r="D19" t="n">
-        <v>41.55303573608398</v>
+        <v>52.8434944152832</v>
       </c>
     </row>
     <row r="20">
@@ -1343,13 +1273,13 @@
         <v>2006</v>
       </c>
       <c r="B20" t="n">
-        <v>38.07209014892578</v>
+        <v>45.97863006591797</v>
       </c>
       <c r="C20" t="n">
-        <v>33.68486785888672</v>
+        <v>40.52067184448242</v>
       </c>
       <c r="D20" t="n">
-        <v>42.45931243896484</v>
+        <v>51.43658828735352</v>
       </c>
     </row>
     <row r="21">
@@ -1357,13 +1287,13 @@
         <v>2007</v>
       </c>
       <c r="B21" t="n">
-        <v>37.76375579833984</v>
+        <v>47.01306915283203</v>
       </c>
       <c r="C21" t="n">
-        <v>33.21068572998047</v>
+        <v>41.60282516479492</v>
       </c>
       <c r="D21" t="n">
-        <v>42.31682586669922</v>
+        <v>52.42331314086914</v>
       </c>
     </row>
     <row r="22">
@@ -1371,13 +1301,13 @@
         <v>2008</v>
       </c>
       <c r="B22" t="n">
-        <v>38.65203857421875</v>
+        <v>46.34225845336914</v>
       </c>
       <c r="C22" t="n">
-        <v>35.77066040039062</v>
+        <v>40.12125396728516</v>
       </c>
       <c r="D22" t="n">
-        <v>41.53341674804688</v>
+        <v>52.56326293945312</v>
       </c>
     </row>
     <row r="23">
@@ -1385,13 +1315,13 @@
         <v>2009</v>
       </c>
       <c r="B23" t="n">
-        <v>39.06504821777344</v>
+        <v>47.75835800170898</v>
       </c>
       <c r="C23" t="n">
-        <v>35.5309944152832</v>
+        <v>42.45280838012695</v>
       </c>
       <c r="D23" t="n">
-        <v>42.59910202026367</v>
+        <v>53.06390762329102</v>
       </c>
     </row>
     <row r="24">
@@ -1399,13 +1329,13 @@
         <v>2010</v>
       </c>
       <c r="B24" t="n">
-        <v>39.1812629699707</v>
+        <v>47.37443923950195</v>
       </c>
       <c r="C24" t="n">
-        <v>35.34021759033203</v>
+        <v>42.29804611206055</v>
       </c>
       <c r="D24" t="n">
-        <v>43.02230834960938</v>
+        <v>52.45083236694336</v>
       </c>
     </row>
     <row r="25">
@@ -1413,13 +1343,13 @@
         <v>2011</v>
       </c>
       <c r="B25" t="n">
-        <v>38.50252151489258</v>
+        <v>46.92839050292969</v>
       </c>
       <c r="C25" t="n">
-        <v>35.90739440917969</v>
+        <v>41.91062927246094</v>
       </c>
       <c r="D25" t="n">
-        <v>41.09764862060547</v>
+        <v>51.94615173339844</v>
       </c>
     </row>
     <row r="26">
@@ -1427,13 +1357,13 @@
         <v>2012</v>
       </c>
       <c r="B26" t="n">
-        <v>38.10881042480469</v>
+        <v>46.66519927978516</v>
       </c>
       <c r="C26" t="n">
-        <v>34.0334587097168</v>
+        <v>41.87740707397461</v>
       </c>
       <c r="D26" t="n">
-        <v>42.18416213989258</v>
+        <v>51.4529914855957</v>
       </c>
     </row>
     <row r="27">
@@ -1441,13 +1371,13 @@
         <v>2013</v>
       </c>
       <c r="B27" t="n">
-        <v>38.83358001708984</v>
+        <v>47.5941047668457</v>
       </c>
       <c r="C27" t="n">
-        <v>33.8766975402832</v>
+        <v>42.38862228393555</v>
       </c>
       <c r="D27" t="n">
-        <v>43.79046249389648</v>
+        <v>52.79958724975586</v>
       </c>
     </row>
     <row r="28">
@@ -1455,13 +1385,13 @@
         <v>2014</v>
       </c>
       <c r="B28" t="n">
-        <v>38.09792327880859</v>
+        <v>47.07101440429688</v>
       </c>
       <c r="C28" t="n">
-        <v>35.37925338745117</v>
+        <v>41.78565216064453</v>
       </c>
       <c r="D28" t="n">
-        <v>40.81659317016602</v>
+        <v>52.35637664794922</v>
       </c>
     </row>
     <row r="29">
@@ -1469,13 +1399,13 @@
         <v>2015</v>
       </c>
       <c r="B29" t="n">
-        <v>37.67986679077148</v>
+        <v>47.58083343505859</v>
       </c>
       <c r="C29" t="n">
-        <v>34.85772705078125</v>
+        <v>44.16092681884766</v>
       </c>
       <c r="D29" t="n">
-        <v>40.50200653076172</v>
+        <v>51.00074005126953</v>
       </c>
     </row>
     <row r="30">
@@ -1483,13 +1413,13 @@
         <v>2016</v>
       </c>
       <c r="B30" t="n">
-        <v>37.26908111572266</v>
+        <v>46.21620559692383</v>
       </c>
       <c r="C30" t="n">
-        <v>33.69728088378906</v>
+        <v>39.68414688110352</v>
       </c>
       <c r="D30" t="n">
-        <v>40.84088134765625</v>
+        <v>52.74826431274414</v>
       </c>
     </row>
     <row r="31">
@@ -1497,13 +1427,13 @@
         <v>2017</v>
       </c>
       <c r="B31" t="n">
-        <v>38.58147048950195</v>
+        <v>46.73237609863281</v>
       </c>
       <c r="C31" t="n">
-        <v>34.6934700012207</v>
+        <v>41.86862945556641</v>
       </c>
       <c r="D31" t="n">
-        <v>42.4694709777832</v>
+        <v>51.59612274169922</v>
       </c>
     </row>
     <row r="32">
@@ -1511,13 +1441,13 @@
         <v>2018</v>
       </c>
       <c r="B32" t="n">
-        <v>37.00706481933594</v>
+        <v>47.06585693359375</v>
       </c>
       <c r="C32" t="n">
-        <v>32.60485458374023</v>
+        <v>41.39643478393555</v>
       </c>
       <c r="D32" t="n">
-        <v>41.40927505493164</v>
+        <v>52.73527908325195</v>
       </c>
     </row>
     <row r="33">
@@ -1525,13 +1455,13 @@
         <v>2019</v>
       </c>
       <c r="B33" t="n">
-        <v>38.97233963012695</v>
+        <v>46.96429824829102</v>
       </c>
       <c r="C33" t="n">
-        <v>34.96315383911133</v>
+        <v>41.6523323059082</v>
       </c>
       <c r="D33" t="n">
-        <v>42.98152542114258</v>
+        <v>52.27626419067383</v>
       </c>
     </row>
     <row r="34">
@@ -1539,13 +1469,13 @@
         <v>2020</v>
       </c>
       <c r="B34" t="n">
-        <v>38.04295349121094</v>
+        <v>46.97267150878906</v>
       </c>
       <c r="C34" t="n">
-        <v>34.75236129760742</v>
+        <v>40.10548782348633</v>
       </c>
       <c r="D34" t="n">
-        <v>41.33354568481445</v>
+        <v>53.8398551940918</v>
       </c>
     </row>
     <row r="35">
@@ -1553,13 +1483,13 @@
         <v>2021</v>
       </c>
       <c r="B35" t="n">
-        <v>37.56830596923828</v>
+        <v>47.16262054443359</v>
       </c>
       <c r="C35" t="n">
-        <v>33.35881805419922</v>
+        <v>41.66423034667969</v>
       </c>
       <c r="D35" t="n">
-        <v>41.77779388427734</v>
+        <v>52.6610107421875</v>
       </c>
     </row>
   </sheetData>
@@ -1608,13 +1538,13 @@
         <v>2022</v>
       </c>
       <c r="B2" t="n">
-        <v>34.41279201507568</v>
+        <v>34.75119247436523</v>
       </c>
       <c r="C2" t="n">
-        <v>30.28216663137401</v>
+        <v>31.14013158833652</v>
       </c>
       <c r="D2" t="n">
-        <v>38.54341739877735</v>
+        <v>38.36225336039394</v>
       </c>
     </row>
     <row r="3">
@@ -1622,13 +1552,13 @@
         <v>2023</v>
       </c>
       <c r="B3" t="n">
-        <v>39.20671615600586</v>
+        <v>40.3030818939209</v>
       </c>
       <c r="C3" t="n">
-        <v>33.70052451524249</v>
+        <v>36.81930876393685</v>
       </c>
       <c r="D3" t="n">
-        <v>44.71290779676923</v>
+        <v>43.78685502390494</v>
       </c>
     </row>
     <row r="4">
@@ -1636,13 +1566,13 @@
         <v>2024</v>
       </c>
       <c r="B4" t="n">
-        <v>38.00055313110352</v>
+        <v>38.03185157775879</v>
       </c>
       <c r="C4" t="n">
-        <v>33.38544080263028</v>
+        <v>34.76127537157856</v>
       </c>
       <c r="D4" t="n">
-        <v>42.61566545957675</v>
+        <v>41.30242778393901</v>
       </c>
     </row>
     <row r="5">
@@ -1650,13 +1580,13 @@
         <v>2025</v>
       </c>
       <c r="B5" t="n">
-        <v>39.22538299560547</v>
+        <v>37.95206031799317</v>
       </c>
       <c r="C5" t="n">
-        <v>33.18246136840474</v>
+        <v>34.4419735258047</v>
       </c>
       <c r="D5" t="n">
-        <v>45.26830462280621</v>
+        <v>41.46214711018163</v>
       </c>
     </row>
     <row r="6">
@@ -1664,13 +1594,13 @@
         <v>2026</v>
       </c>
       <c r="B6" t="n">
-        <v>37.43564834594726</v>
+        <v>49.8381820678711</v>
       </c>
       <c r="C6" t="n">
-        <v>35.2744560113713</v>
+        <v>45.54991902313073</v>
       </c>
       <c r="D6" t="n">
-        <v>39.59684068052323</v>
+        <v>54.12644511261146</v>
       </c>
     </row>
   </sheetData>
